--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T16:45:27+00:00</t>
+    <t>2024-06-28T16:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T16:52:59+00:00</t>
+    <t>2024-06-28T22:14:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,25 +59,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T22:14:31+00:00</t>
+    <t>2024-06-29T06:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>World Health Organization</t>
+    <t>WHO</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>null (https://www.who.int)</t>
+    <t>WHO (http://who.int)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t/>
   </si>
   <si>
     <t>Description</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-29T06:31:00+00:00</t>
+    <t>2024-06-29T07:09:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-29T07:09:27+00:00</t>
+    <t>2024-06-29T07:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-29T07:14:41+00:00</t>
+    <t>2024-07-01T05:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T05:40:26+00:00</t>
+    <t>2024-07-01T07:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:25:05+00:00</t>
+    <t>2024-07-01T12:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:29:47+00:00</t>
+    <t>2024-07-01T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T14:15:20+00:00</t>
+    <t>2024-07-01T15:03:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:25+00:00</t>
+    <t>2024-07-01T19:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:16:13+00:00</t>
+    <t>2024-07-01T19:46:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:46:06+00:00</t>
+    <t>2024-07-01T19:47:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:47:23+00:00</t>
+    <t>2024-07-08T21:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T21:32:57+00:00</t>
+    <t>2024-07-12T23:16:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T23:16:48+00:00</t>
+    <t>2024-07-12T23:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T23:32:04+00:00</t>
+    <t>2024-07-12T23:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T23:35:30+00:00</t>
+    <t>2024-07-13T00:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-13T00:08:00+00:00</t>
+    <t>2024-07-13T00:11:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-13T00:11:33+00:00</t>
+    <t>2024-07-18T00:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T00:40:55+00:00</t>
+    <t>2024-07-22T01:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T01:36:05+00:00</t>
+    <t>2024-07-22T01:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T01:55:08+00:00</t>
+    <t>2024-07-22T01:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T01:56:54+00:00</t>
+    <t>2024-07-23T00:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-23T00:54:21+00:00</t>
+    <t>2024-07-24T18:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T18:44:05+00:00</t>
+    <t>2024-07-24T22:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T22:47:13+00:00</t>
+    <t>2024-07-31T16:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T16:10:46+00:00</t>
+    <t>2024-08-02T14:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-02T14:11:44+00:00</t>
+    <t>2024-08-09T22:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-09T22:35:04+00:00</t>
+    <t>2024-08-12T23:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T23:19:51+00:00</t>
+    <t>2024-08-13T19:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T19:21:15+00:00</t>
+    <t>2024-08-14T10:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T10:49:52+00:00</t>
+    <t>2024-08-18T03:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T03:48:48+00:00</t>
+    <t>2024-08-18T17:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T17:57:09+00:00</t>
+    <t>2024-08-18T18:01:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T18:01:46+00:00</t>
+    <t>2024-08-18T18:15:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T18:15:40+00:00</t>
+    <t>2024-08-18T19:04:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:04:15+00:00</t>
+    <t>2024-08-18T19:05:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:05:30+00:00</t>
+    <t>2024-08-18T19:09:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:09:24+00:00</t>
+    <t>2024-08-21T16:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:05:17+00:00</t>
+    <t>2024-09-25T13:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T13:28:49+00:00</t>
+    <t>2024-10-17T13:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:22:30+00:00</t>
+    <t>2024-10-17T13:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:23:47+00:00</t>
+    <t>2024-10-17T13:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:40:48+00:00</t>
+    <t>2024-10-17T13:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:43:39+00:00</t>
+    <t>2024-10-17T13:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:46:08+00:00</t>
+    <t>2024-10-30T19:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:02:22+00:00</t>
+    <t>2024-10-30T19:04:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:04:31+00:00</t>
+    <t>2024-11-07T20:58:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T20:58:48+00:00</t>
+    <t>2024-11-07T21:00:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T21:00:54+00:00</t>
+    <t>2024-11-07T21:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T21:07:17+00:00</t>
+    <t>2024-12-06T22:10:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:10:30+00:00</t>
+    <t>2024-12-06T22:29:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:29:10+00:00</t>
+    <t>2024-12-06T22:30:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:30:44+00:00</t>
+    <t>2024-12-19T17:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T17:58:53+00:00</t>
+    <t>2024-12-30T06:22:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-30T06:22:02+00:00</t>
+    <t>2025-01-02T00:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T00:27:00+00:00</t>
+    <t>2025-01-13T13:43:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T13:43:27+00:00</t>
+    <t>2025-01-13T15:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:57:06+00:00</t>
+    <t>2025-01-13T16:44:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:44:09+00:00</t>
+    <t>2025-01-13T18:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:26:13+00:00</t>
+    <t>2025-01-13T18:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:28:16+00:00</t>
+    <t>2025-01-14T02:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T02:52:20+00:00</t>
+    <t>2025-01-21T18:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T18:11:19+00:00</t>
+    <t>2025-01-28T16:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T16:09:20+00:00</t>
+    <t>2025-01-30T04:52:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T04:52:13+00:00</t>
+    <t>2025-01-30T07:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T07:19:17+00:00</t>
+    <t>2025-01-30T16:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:12:52+00:00</t>
+    <t>2025-01-31T23:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T23:17:43+00:00</t>
+    <t>2025-02-01T06:48:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T06:48:33+00:00</t>
+    <t>2025-02-01T23:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.D.DE80.xlsx
+++ b/ValueSet-HIV.D.DE80.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:38:57+00:00</t>
+    <t>2025-02-07T14:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
